--- a/PFAS_albumin_QSAR/Albumin_binding_data.xlsx
+++ b/PFAS_albumin_QSAR/Albumin_binding_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vassilis/Documents/GitHub/QSAR_PFAS/PFAS_albumin_QSAR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C7C86B-05A6-9749-80FE-9E3CEAE4450B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525F35A9-B2AB-3649-A31A-154020CC14A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5520" yWindow="660" windowWidth="32720" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2219,10 +2219,10 @@
   <dimension ref="A1:AI320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="O262" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="Q272" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S263" sqref="S263:S320"/>
+      <selection pane="bottomRight" activeCell="R298" sqref="R298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14893,14 +14893,15 @@
         <v>26</v>
       </c>
       <c r="R298" s="15">
-        <v>4545000</v>
+        <f>1/T298</f>
+        <v>454545.45454545453</v>
       </c>
       <c r="S298" s="15">
         <f t="shared" si="10"/>
-        <v>826446.2809917354</v>
+        <v>8264.4628099173551</v>
       </c>
       <c r="T298" s="1">
-        <v>2.2000000000000001E-7</v>
+        <v>2.2000000000000001E-6</v>
       </c>
       <c r="U298" s="1">
         <v>4.0000000000000001E-8</v>
